--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1323891.270722225</v>
+        <v>1311553.295431998</v>
       </c>
     </row>
     <row r="7">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>198.9430992003357</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>79.82547003249388</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269516</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
         <v>192.0665623188214</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>135.887817640013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>40.46616717214799</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>136.1279292653781</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>208.247486888632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8092030868068</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>67.71328032340972</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.752250410260106</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.2916870325554</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>12.74407195098067</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>24.84860440602762</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.870699187048144</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>126.5388824951711</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>89.48046147214393</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.23490948285971</v>
+        <v>152.0684032264859</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>220.2403806056876</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>98.86905627466709</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.98576519627151</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>49.49274882669919</v>
       </c>
       <c r="H17" t="n">
-        <v>168.1158122680957</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7822070347161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474791</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>245.478270599552</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>323.4624061283618</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>81.76432702666622</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963165</v>
       </c>
       <c r="H23" t="n">
-        <v>279.2121097143737</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.77443380478226</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T23" t="n">
         <v>199.03604613535</v>
@@ -2414,7 +2414,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H24" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.3084103517964</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S25" t="n">
         <v>181.0509578340822</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>169.4818109535899</v>
       </c>
       <c r="U25" t="n">
         <v>286.184551609377</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>242.0190423563178</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.80013931658179</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T26" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471497</v>
       </c>
       <c r="U26" t="n">
         <v>250.905953473387</v>
@@ -2651,7 +2651,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H27" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>17.19586401066991</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>147.1667297516871</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S28" t="n">
         <v>181.0509578340822</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.77443380478226</v>
+        <v>79.80013931658179</v>
       </c>
       <c r="T29" t="n">
-        <v>195.0617516471497</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U29" t="n">
         <v>250.905953473387</v>
@@ -2888,7 +2888,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H30" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>133.7869272694643</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H31" t="n">
-        <v>140.3072997278744</v>
+        <v>0.2857830341782969</v>
       </c>
       <c r="I31" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961376</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S31" t="n">
         <v>181.0509578340822</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.77443380478226</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T32" t="n">
-        <v>195.0617516471497</v>
+        <v>195.0617516471488</v>
       </c>
       <c r="U32" t="n">
         <v>250.905953473387</v>
@@ -3125,7 +3125,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H33" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>7.725795497713968</v>
       </c>
       <c r="G34" t="n">
-        <v>54.13912336666156</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T34" t="n">
         <v>217.4114992376929</v>
@@ -3283,7 +3283,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>79.8001393165827</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T35" t="n">
         <v>199.03604613535</v>
@@ -3362,7 +3362,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H36" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>17.19586401067078</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961376</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S37" t="n">
         <v>181.0509578340822</v>
@@ -3480,13 +3480,13 @@
         <v>217.4114992376929</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>244.3531928883875</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.8001393165827</v>
+        <v>79.80013931658179</v>
       </c>
       <c r="T38" t="n">
         <v>199.03604613535</v>
@@ -3599,7 +3599,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H39" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>17.19586401067078</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I40" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961376</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.184551609377</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>104.4934550269575</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H41" t="n">
-        <v>279.2121097143728</v>
+        <v>283.1864042025732</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.77443380478226</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T41" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471497</v>
       </c>
       <c r="U41" t="n">
         <v>250.905953473387</v>
@@ -3836,7 +3836,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H42" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>25.50403730100878</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
         <v>140.3072997278744</v>
       </c>
       <c r="I43" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.43890183961376</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S43" t="n">
         <v>181.0509578340822</v>
@@ -3954,13 +3954,13 @@
         <v>217.4114992376929</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>244.3531928883875</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>377.9560755840623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963165</v>
       </c>
       <c r="H44" t="n">
         <v>283.1864042025732</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.77443380478226</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T44" t="n">
         <v>199.03604613535</v>
@@ -4073,7 +4073,7 @@
         <v>134.4027679385879</v>
       </c>
       <c r="H45" t="n">
-        <v>83.83399777763974</v>
+        <v>83.83399777763975</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.3084103517964</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961376</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>54.13912336666156</v>
       </c>
       <c r="T46" t="n">
         <v>217.4114992376929</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V46" t="n">
-        <v>138.8811523858794</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218655</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218655</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218655</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218655</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
@@ -4348,34 +4348,34 @@
         <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>2562.339328400154</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966375</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155105</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542593</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488038</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756888</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182509</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100992</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460311</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087192</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881659</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>357.443391354509</v>
+        <v>706.8033708781529</v>
       </c>
       <c r="C4" t="n">
-        <v>188.5072084266021</v>
+        <v>537.867187950246</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>387.7505485379103</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>387.7505485379103</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>240.8606010399999</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>240.8606010399999</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>92.1217029035061</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827661</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X4" t="n">
-        <v>539.0918561847487</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.0918561847487</v>
+        <v>888.4518357083927</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>652.5759934195833</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C5" t="n">
-        <v>652.5759934195833</v>
+        <v>1416.637639419809</v>
       </c>
       <c r="D5" t="n">
-        <v>652.5759934195833</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E5" t="n">
-        <v>266.787740821339</v>
+        <v>672.5836882148146</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>261.5977834252071</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="Y5" t="n">
-        <v>652.5759934195833</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.189556406156</v>
+        <v>582.433545191957</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>582.433545191957</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1633.666069155043</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1437.037321314904</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1437.037321314904</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1437.037321314904</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1437.037321314904</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1147.620151277943</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>919.6306003799259</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.8380212363958</v>
+        <v>582.433545191957</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1553.305894864461</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="C8" t="n">
-        <v>1184.34337792405</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>1342.972143346163</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>957.1838907479189</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>546.1979859583114</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>130.4932356826002</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4810,7 +4810,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1669.762144392295</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.762144392295</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>599.4122767260736</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1611.346519664368</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1322.228182168206</v>
       </c>
       <c r="V10" t="n">
-        <v>825.137147448514</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="W10" t="n">
-        <v>535.7199774115534</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X10" t="n">
-        <v>307.730426513536</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751036</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367746</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760995</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.384423162751</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731436</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>236.3260682181401</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.140063348091</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>362.8175152271517</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>362.8175152271517</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D13" t="n">
-        <v>362.8175152271517</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E13" t="n">
-        <v>362.8175152271517</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F13" t="n">
-        <v>362.8175152271517</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G13" t="n">
         <v>310.0549803959803</v>
@@ -5196,7 +5196,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.8175152271517</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>741.9599508971583</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>330.9740461075507</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218339</v>
@@ -5281,10 +5281,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5293,7 +5293,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V14" t="n">
-        <v>2655.939195183548</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W14" t="n">
-        <v>2303.170539913434</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.170539913434</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.170539913434</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218339</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1868.723068092258</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088492</v>
+        <v>1677.037183919085</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1677.037183919085</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088492</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088492</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308156</v>
+        <v>1569.101759311878</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367744</v>
+        <v>1200.139242371467</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760994</v>
+        <v>841.8735437647163</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.38442316275</v>
+        <v>456.085291166472</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731422</v>
+        <v>456.085291166472</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181387</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296685</v>
@@ -5548,19 +5548,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.14006334809</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372278</v>
+        <v>1955.701599376</v>
       </c>
     </row>
     <row r="18">
@@ -5709,7 +5709,7 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W19" t="n">
         <v>1478.501411349798</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1381.278680221566</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C20" t="n">
-        <v>1012.316163281155</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D20" t="n">
-        <v>654.0504646744041</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>654.0504646744041</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>654.0504646744041</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
@@ -5752,25 +5752,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
@@ -5779,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.252265792694</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W20" t="n">
-        <v>2531.48361052258</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X20" t="n">
-        <v>2158.0178522615</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y20" t="n">
-        <v>1767.878520285688</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,10 +5846,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.0847133907091</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>608.0847133907091</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
@@ -5916,19 +5916,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088492</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1844.704318768627</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.937703338153</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U22" t="n">
-        <v>1333.834836463796</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V22" t="n">
-        <v>1079.150348257909</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W22" t="n">
-        <v>789.7331782209488</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X22" t="n">
-        <v>789.7331782209488</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y22" t="n">
-        <v>789.7331782209488</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2313.718000759159</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C23" t="n">
-        <v>1944.755483818747</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D23" t="n">
-        <v>1586.489785211997</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E23" t="n">
-        <v>1200.701532613752</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F23" t="n">
-        <v>789.7156278241448</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G23" t="n">
-        <v>375.7696736983702</v>
+        <v>379.7841125753393</v>
       </c>
       <c r="H23" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L23" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M23" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N23" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O23" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P23" t="n">
         <v>4190.976381557452</v>
       </c>
       <c r="Q23" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R23" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S23" t="n">
-        <v>4602.241341965511</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T23" t="n">
-        <v>4401.194830717683</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U23" t="n">
-        <v>4147.754473673857</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.691586330287</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.922931060172</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X23" t="n">
-        <v>3090.457172799092</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y23" t="n">
-        <v>2700.317840823281</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G24" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H24" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I24" t="n">
-        <v>93.73723964344725</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J24" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K24" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L24" t="n">
-        <v>243.2259377396009</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M24" t="n">
-        <v>681.4755315925103</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N24" t="n">
-        <v>1308.638698858942</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O24" t="n">
-        <v>1860.150675438898</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.454592555772</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R24" t="n">
         <v>2553.038713876677</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.644884957301</v>
+        <v>560.703155566083</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7087020293943</v>
+        <v>391.7669726381761</v>
       </c>
       <c r="D25" t="n">
-        <v>779.5920626170586</v>
+        <v>241.6503332258403</v>
       </c>
       <c r="E25" t="n">
-        <v>631.6789690346654</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="F25" t="n">
-        <v>484.7890215367551</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G25" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H25" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I25" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J25" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K25" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L25" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M25" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N25" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O25" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P25" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q25" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R25" t="n">
-        <v>2445.494219020782</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S25" t="n">
-        <v>2262.61446363282</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T25" t="n">
-        <v>2262.61446363282</v>
+        <v>2024.310713336654</v>
       </c>
       <c r="U25" t="n">
-        <v>1973.539158976884</v>
+        <v>1735.235408680718</v>
       </c>
       <c r="V25" t="n">
-        <v>1973.539158976884</v>
+        <v>1480.550920474831</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.075479829088</v>
+        <v>1191.13375043787</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.085928931071</v>
+        <v>963.1441995398528</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.293349787541</v>
+        <v>742.3516203963227</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L26" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O26" t="n">
         <v>3637.434109665869</v>
@@ -6253,7 +6253,7 @@
         <v>4686.861982172361</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T26" t="n">
         <v>4405.209269594652</v>
@@ -6302,31 +6302,31 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I27" t="n">
-        <v>93.73723964344723</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J27" t="n">
-        <v>243.2259377396008</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K27" t="n">
-        <v>243.2259377396008</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L27" t="n">
-        <v>738.1885599211244</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M27" t="n">
-        <v>1335.143462300575</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N27" t="n">
-        <v>1962.306629567006</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O27" t="n">
-        <v>1962.306629567006</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P27" t="n">
-        <v>2385.610546683879</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R27" t="n">
         <v>2553.038713876677</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>761.0477957049203</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C28" t="n">
-        <v>761.0477957049203</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D28" t="n">
-        <v>761.0477957049203</v>
+        <v>193.2365066762415</v>
       </c>
       <c r="E28" t="n">
-        <v>613.1347021225272</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="F28" t="n">
-        <v>466.2447546246168</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="G28" t="n">
-        <v>317.5914922491753</v>
+        <v>175.8669470695042</v>
       </c>
       <c r="H28" t="n">
         <v>175.8669470695042</v>
@@ -6387,49 +6387,49 @@
         <v>173.8741688132293</v>
       </c>
       <c r="K28" t="n">
-        <v>435.4005972446798</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L28" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M28" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N28" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O28" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P28" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q28" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R28" t="n">
-        <v>2445.494219020782</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S28" t="n">
-        <v>2262.61446363282</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.006888645252</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.931583989315</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.247095783428</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.829925746468</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X28" t="n">
-        <v>981.8403748484504</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.0477957049203</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557836</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J29" t="n">
-        <v>377.727510962393</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L29" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N29" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P29" t="n">
         <v>4190.976381557452</v>
@@ -6490,7 +6490,7 @@
         <v>4686.861982172361</v>
       </c>
       <c r="S29" t="n">
-        <v>4602.24134196551</v>
+        <v>4606.255780842481</v>
       </c>
       <c r="T29" t="n">
         <v>4405.209269594652</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3077.16113735122</v>
+        <v>943.337869055535</v>
       </c>
       <c r="C30" t="n">
-        <v>2902.708108070093</v>
+        <v>768.884839774408</v>
       </c>
       <c r="D30" t="n">
-        <v>2753.773698408841</v>
+        <v>619.9504301131567</v>
       </c>
       <c r="E30" t="n">
-        <v>2594.536243403386</v>
+        <v>460.7129751077013</v>
       </c>
       <c r="F30" t="n">
-        <v>2448.001685430271</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G30" t="n">
-        <v>2312.241313775131</v>
+        <v>178.418045479447</v>
       </c>
       <c r="H30" t="n">
-        <v>2227.560507939132</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I30" t="n">
-        <v>2227.560507939132</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J30" t="n">
-        <v>2377.049206035285</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K30" t="n">
-        <v>2451.392159492911</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L30" t="n">
-        <v>2451.392159492911</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M30" t="n">
-        <v>3048.347061872361</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N30" t="n">
-        <v>3675.510229138793</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O30" t="n">
-        <v>4227.022205718749</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P30" t="n">
-        <v>4650.326122835623</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q30" t="n">
-        <v>4650.326122835623</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R30" t="n">
-        <v>4686.861982172361</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="S30" t="n">
-        <v>4568.619513426138</v>
+        <v>2434.796245130453</v>
       </c>
       <c r="T30" t="n">
-        <v>4378.405931975708</v>
+        <v>2244.582663680023</v>
       </c>
       <c r="U30" t="n">
-        <v>4150.377738301719</v>
+        <v>2016.554470006034</v>
       </c>
       <c r="V30" t="n">
-        <v>3915.225630069976</v>
+        <v>1781.402361774291</v>
       </c>
       <c r="W30" t="n">
-        <v>3660.988273341774</v>
+        <v>1527.16500504609</v>
       </c>
       <c r="X30" t="n">
-        <v>3453.136773136242</v>
+        <v>1319.313504840557</v>
       </c>
       <c r="Y30" t="n">
-        <v>3245.376474371288</v>
+        <v>1111.553206075603</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>914.7303729902549</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C31" t="n">
-        <v>914.7303729902549</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D31" t="n">
-        <v>779.5920626170586</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E31" t="n">
-        <v>631.6789690346654</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="F31" t="n">
-        <v>484.7890215367551</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="G31" t="n">
-        <v>317.5914922491753</v>
+        <v>176.1556168009974</v>
       </c>
       <c r="H31" t="n">
         <v>175.8669470695042</v>
@@ -6624,49 +6624,49 @@
         <v>173.8741688132293</v>
       </c>
       <c r="K31" t="n">
-        <v>435.4005972446798</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L31" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M31" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N31" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O31" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P31" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q31" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R31" t="n">
-        <v>2378.384217162587</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S31" t="n">
-        <v>2195.504461774625</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T31" t="n">
-        <v>1975.896886787056</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U31" t="n">
-        <v>1686.82158213112</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.137093925233</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.719923888272</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X31" t="n">
-        <v>914.7303729902549</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y31" t="n">
-        <v>914.7303729902549</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
     <row r="32">
@@ -6685,64 +6685,64 @@
         <v>1590.504224088966</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.715971490722</v>
+        <v>1204.715971490721</v>
       </c>
       <c r="F32" t="n">
-        <v>793.730066701114</v>
+        <v>793.7300667011139</v>
       </c>
       <c r="G32" t="n">
         <v>379.7841125753393</v>
       </c>
       <c r="H32" t="n">
-        <v>93.73723964344723</v>
+        <v>93.7372396434472</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557828</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623928</v>
+        <v>377.7275109623927</v>
       </c>
       <c r="K32" t="n">
-        <v>851.9898429966354</v>
+        <v>851.989842996635</v>
       </c>
       <c r="L32" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.434109665869</v>
+        <v>3637.434109665868</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557452</v>
+        <v>4190.976381557451</v>
       </c>
       <c r="Q32" t="n">
-        <v>4558.490828317809</v>
+        <v>4558.490828317807</v>
       </c>
       <c r="R32" t="n">
-        <v>4686.861982172361</v>
+        <v>4686.86198217236</v>
       </c>
       <c r="S32" t="n">
-        <v>4602.24134196551</v>
+        <v>4602.241341965509</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.209269594652</v>
+        <v>4405.209269594651</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550827</v>
+        <v>4151.768912550826</v>
       </c>
       <c r="V32" t="n">
         <v>3820.706025207256</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.937369937142</v>
+        <v>3467.937369937141</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.471611676062</v>
+        <v>3094.471611676061</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.33227970025</v>
@@ -6773,34 +6773,34 @@
         <v>178.418045479447</v>
       </c>
       <c r="H33" t="n">
-        <v>93.73723964344723</v>
+        <v>93.7372396434472</v>
       </c>
       <c r="I33" t="n">
-        <v>93.73723964344723</v>
+        <v>95.447068527464</v>
       </c>
       <c r="J33" t="n">
-        <v>243.2259377396008</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K33" t="n">
-        <v>243.2259377396008</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2259377396008</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M33" t="n">
-        <v>681.4755315925103</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N33" t="n">
-        <v>1308.638698858942</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O33" t="n">
-        <v>1860.150675438898</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.454592555772</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R33" t="n">
         <v>2553.038713876677</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3003.646849414221</v>
+        <v>579.3993308746797</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.710666486314</v>
+        <v>410.4631479467728</v>
       </c>
       <c r="D34" t="n">
-        <v>2684.594027073979</v>
+        <v>410.4631479467728</v>
       </c>
       <c r="E34" t="n">
-        <v>2536.680933491586</v>
+        <v>410.4631479467728</v>
       </c>
       <c r="F34" t="n">
-        <v>2389.790985993675</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="G34" t="n">
-        <v>2335.105002795027</v>
+        <v>235.4617848231183</v>
       </c>
       <c r="H34" t="n">
-        <v>2335.105002795027</v>
+        <v>93.7372396434472</v>
       </c>
       <c r="I34" t="n">
-        <v>2335.105002795027</v>
+        <v>93.7372396434472</v>
       </c>
       <c r="J34" t="n">
-        <v>2415.241931964809</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K34" t="n">
-        <v>2676.76836039626</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L34" t="n">
-        <v>3066.958582993583</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M34" t="n">
-        <v>3488.748587110818</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N34" t="n">
-        <v>3905.943984099012</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O34" t="n">
-        <v>4275.275162734845</v>
+        <v>2033.907399583265</v>
       </c>
       <c r="P34" t="n">
-        <v>4567.781107761632</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q34" t="n">
-        <v>4686.861982172361</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R34" t="n">
-        <v>4686.861982172361</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S34" t="n">
-        <v>4686.861982172361</v>
+        <v>2262.614463632819</v>
       </c>
       <c r="T34" t="n">
-        <v>4467.254407184792</v>
+        <v>2043.006888645251</v>
       </c>
       <c r="U34" t="n">
-        <v>4178.179102528856</v>
+        <v>1753.931583989315</v>
       </c>
       <c r="V34" t="n">
-        <v>3923.494614322969</v>
+        <v>1499.247095783428</v>
       </c>
       <c r="W34" t="n">
-        <v>3634.077444286008</v>
+        <v>1209.829925746467</v>
       </c>
       <c r="X34" t="n">
-        <v>3406.087893387991</v>
+        <v>981.8403748484495</v>
       </c>
       <c r="Y34" t="n">
-        <v>3185.295314244461</v>
+        <v>761.0477957049194</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F35" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G35" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983693</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I35" t="n">
         <v>95.14107549557821</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623927</v>
       </c>
       <c r="K35" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P35" t="n">
         <v>4190.976381557452</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F36" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G36" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I36" t="n">
-        <v>93.73723964344725</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J36" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K36" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L36" t="n">
-        <v>354.1047505339651</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M36" t="n">
-        <v>951.0596529134153</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.222820179847</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.734796759803</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P36" t="n">
         <v>2553.038713876677</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.289329016485</v>
+        <v>1098.644884957301</v>
       </c>
       <c r="C37" t="n">
-        <v>343.3531460885781</v>
+        <v>929.7087020293943</v>
       </c>
       <c r="D37" t="n">
-        <v>193.2365066762424</v>
+        <v>779.5920626170586</v>
       </c>
       <c r="E37" t="n">
-        <v>193.2365066762424</v>
+        <v>631.6789690346654</v>
       </c>
       <c r="F37" t="n">
-        <v>193.2365066762424</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G37" t="n">
-        <v>193.2365066762424</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H37" t="n">
         <v>175.8669470695042</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J37" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K37" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L37" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M37" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N37" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O37" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P37" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q37" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R37" t="n">
-        <v>2378.384217162587</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S37" t="n">
-        <v>2195.504461774625</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T37" t="n">
-        <v>1975.896886787056</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U37" t="n">
-        <v>1686.82158213112</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.137093925233</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="W37" t="n">
-        <v>1142.719923888272</v>
+        <v>1729.075479829088</v>
       </c>
       <c r="X37" t="n">
-        <v>914.7303729902549</v>
+        <v>1501.085928931071</v>
       </c>
       <c r="Y37" t="n">
-        <v>693.9377938467247</v>
+        <v>1280.293349787541</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.7841125753393</v>
       </c>
       <c r="H38" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I38" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J38" t="n">
         <v>377.7275109623929</v>
       </c>
       <c r="K38" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L38" t="n">
         <v>1477.25596488715</v>
@@ -7189,16 +7189,16 @@
         <v>2948.436788907898</v>
       </c>
       <c r="O38" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P38" t="n">
         <v>4190.976381557452</v>
       </c>
       <c r="Q38" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R38" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S38" t="n">
         <v>4606.255780842481</v>
@@ -7241,40 +7241,40 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F39" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G39" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H39" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I39" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J39" t="n">
-        <v>243.2259377396009</v>
+        <v>243.2259377396008</v>
       </c>
       <c r="K39" t="n">
-        <v>576.8807577203672</v>
+        <v>576.880757720367</v>
       </c>
       <c r="L39" t="n">
-        <v>1071.843379901891</v>
+        <v>1071.84337990189</v>
       </c>
       <c r="M39" t="n">
-        <v>1071.843379901891</v>
+        <v>1668.79828228134</v>
       </c>
       <c r="N39" t="n">
-        <v>1699.006547168322</v>
+        <v>2295.961449547772</v>
       </c>
       <c r="O39" t="n">
-        <v>2250.518523748279</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R39" t="n">
         <v>2553.038713876677</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.289329016485</v>
+        <v>1098.644884957301</v>
       </c>
       <c r="C40" t="n">
-        <v>343.3531460885781</v>
+        <v>929.7087020293943</v>
       </c>
       <c r="D40" t="n">
-        <v>193.2365066762424</v>
+        <v>779.5920626170586</v>
       </c>
       <c r="E40" t="n">
-        <v>175.8669470695042</v>
+        <v>631.6789690346654</v>
       </c>
       <c r="F40" t="n">
-        <v>175.8669470695042</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G40" t="n">
-        <v>175.8669470695042</v>
+        <v>317.5914922491753</v>
       </c>
       <c r="H40" t="n">
         <v>175.8669470695042</v>
       </c>
       <c r="I40" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J40" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K40" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L40" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M40" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N40" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O40" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P40" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q40" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R40" t="n">
-        <v>2378.384217162587</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S40" t="n">
-        <v>2195.504461774625</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="T40" t="n">
-        <v>1975.896886787056</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="U40" t="n">
-        <v>1686.82158213112</v>
+        <v>2089.308912506649</v>
       </c>
       <c r="V40" t="n">
-        <v>1432.137093925233</v>
+        <v>1834.624424300762</v>
       </c>
       <c r="W40" t="n">
-        <v>1142.719923888272</v>
+        <v>1729.075479829088</v>
       </c>
       <c r="X40" t="n">
-        <v>914.7303729902549</v>
+        <v>1501.085928931071</v>
       </c>
       <c r="Y40" t="n">
-        <v>693.9377938467247</v>
+        <v>1280.293349787541</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2313.718000759158</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C41" t="n">
-        <v>1944.755483818746</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.489785211996</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E41" t="n">
-        <v>1200.701532613751</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F41" t="n">
-        <v>789.7156278241439</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G41" t="n">
-        <v>375.7696736983693</v>
+        <v>379.7841125753393</v>
       </c>
       <c r="H41" t="n">
         <v>93.73723964344723</v>
       </c>
       <c r="I41" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557843</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623929</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L41" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M41" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N41" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O41" t="n">
         <v>3637.434109665869</v>
@@ -7441,22 +7441,22 @@
         <v>4602.24134196551</v>
       </c>
       <c r="T41" t="n">
-        <v>4401.194830717682</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U41" t="n">
-        <v>4147.754473673856</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V41" t="n">
-        <v>3816.691586330286</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.922931060171</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X41" t="n">
-        <v>3090.457172799091</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y41" t="n">
-        <v>2700.31784082328</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.2259377396008</v>
       </c>
       <c r="K42" t="n">
-        <v>576.8807577203671</v>
+        <v>576.880757720367</v>
       </c>
       <c r="L42" t="n">
-        <v>1071.843379901891</v>
+        <v>1071.84337990189</v>
       </c>
       <c r="M42" t="n">
-        <v>1668.798282281341</v>
+        <v>1668.79828228134</v>
       </c>
       <c r="N42" t="n">
-        <v>2295.961449547773</v>
+        <v>2295.961449547772</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.502854539939</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="R42" t="n">
         <v>2553.038713876677</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>512.289329016485</v>
+        <v>1098.644884957301</v>
       </c>
       <c r="C43" t="n">
-        <v>343.3531460885781</v>
+        <v>929.7087020293943</v>
       </c>
       <c r="D43" t="n">
-        <v>343.3531460885781</v>
+        <v>779.5920626170586</v>
       </c>
       <c r="E43" t="n">
-        <v>343.3531460885781</v>
+        <v>631.6789690346654</v>
       </c>
       <c r="F43" t="n">
-        <v>343.3531460885781</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="G43" t="n">
         <v>317.5914922491753</v>
@@ -7572,49 +7572,49 @@
         <v>173.8741688132293</v>
       </c>
       <c r="K43" t="n">
-        <v>435.4005972446798</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L43" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M43" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N43" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O43" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P43" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R43" t="n">
-        <v>2378.384217162587</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S43" t="n">
-        <v>2195.504461774625</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T43" t="n">
-        <v>1975.896886787056</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U43" t="n">
-        <v>1686.82158213112</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="V43" t="n">
-        <v>1432.137093925233</v>
+        <v>1729.075479829088</v>
       </c>
       <c r="W43" t="n">
-        <v>1142.719923888272</v>
+        <v>1729.075479829088</v>
       </c>
       <c r="X43" t="n">
-        <v>914.7303729902549</v>
+        <v>1501.085928931071</v>
       </c>
       <c r="Y43" t="n">
-        <v>693.9377938467247</v>
+        <v>1280.293349787541</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313.718000759159</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C44" t="n">
-        <v>1944.755483818747</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D44" t="n">
-        <v>1586.489785211997</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F44" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G44" t="n">
         <v>379.7841125753393</v>
       </c>
       <c r="H44" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I44" t="n">
         <v>95.14107549557866</v>
       </c>
       <c r="J44" t="n">
-        <v>377.7275109623932</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966356</v>
+        <v>851.9898429966361</v>
       </c>
       <c r="L44" t="n">
         <v>1477.25596488715</v>
@@ -7663,37 +7663,37 @@
         <v>2948.436788907898</v>
       </c>
       <c r="O44" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P44" t="n">
         <v>4190.976381557452</v>
       </c>
       <c r="Q44" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R44" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S44" t="n">
-        <v>4602.241341965511</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T44" t="n">
-        <v>4401.194830717683</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U44" t="n">
-        <v>4147.754473673857</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.691586330287</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.922931060172</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X44" t="n">
-        <v>3090.457172799092</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y44" t="n">
-        <v>2700.317840823281</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F45" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G45" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H45" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I45" t="n">
-        <v>93.73723964344725</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J45" t="n">
-        <v>243.2259377396009</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K45" t="n">
-        <v>243.2259377396009</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L45" t="n">
-        <v>243.2259377396009</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M45" t="n">
-        <v>840.180840119051</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N45" t="n">
-        <v>1467.344007385483</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O45" t="n">
-        <v>2018.855983965439</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="P45" t="n">
-        <v>2442.159901082313</v>
+        <v>2553.038713876677</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.038713876677</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.644884957301</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7087020293943</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D46" t="n">
-        <v>779.5920626170586</v>
+        <v>388.5402807237507</v>
       </c>
       <c r="E46" t="n">
-        <v>631.6789690346654</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F46" t="n">
-        <v>484.7890215367551</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G46" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H46" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I46" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J46" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K46" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446797</v>
       </c>
       <c r="L46" t="n">
-        <v>825.5908198420036</v>
+        <v>825.5908198420034</v>
       </c>
       <c r="M46" t="n">
-        <v>1247.380823959239</v>
+        <v>1247.380823959238</v>
       </c>
       <c r="N46" t="n">
-        <v>1664.576220947433</v>
+        <v>1664.576220947432</v>
       </c>
       <c r="O46" t="n">
         <v>2033.907399583265</v>
       </c>
       <c r="P46" t="n">
-        <v>2326.413344610052</v>
+        <v>2326.413344610051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2445.494219020782</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="R46" t="n">
-        <v>2378.384217162587</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S46" t="n">
-        <v>2378.384217162587</v>
+        <v>2390.808235822133</v>
       </c>
       <c r="T46" t="n">
-        <v>2158.776642175018</v>
+        <v>2171.200660834565</v>
       </c>
       <c r="U46" t="n">
-        <v>2158.776642175018</v>
+        <v>1882.125356178628</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.492649866049</v>
+        <v>1627.440867972741</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.075479829088</v>
+        <v>1338.023697935781</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.085928931071</v>
+        <v>1110.034147037763</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.293349787541</v>
+        <v>889.2415678942331</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8344935184734</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515142</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>6.454437538929938</v>
+        <v>54.95314511566573</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>168.0688818921494</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>296.7574771839097</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>113.7908987761685</v>
+        <v>13.95740503254237</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>190.6813450477658</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>228.8832021954678</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>30.94638747377584</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>361.4289768267543</v>
       </c>
       <c r="H17" t="n">
-        <v>126.4919521192248</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>94.35543628911191</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>94.35543628911194</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>165.4434550539015</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>62.77553252769178</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>108.0046983047757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>94.04427615813316</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="H23" t="n">
-        <v>3.974294488199462</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.43890183961376</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4114992376929</v>
+        <v>47.92968828410304</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>44.50395598027316</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.974294488200471</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.2380986358993</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>18.3588242430169</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.974294488200499</v>
       </c>
       <c r="T29" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>14.82854574874801</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.021516693696</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.974294488200371</v>
+        <v>3.974294488201281</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>137.6952525252173</v>
       </c>
       <c r="G34" t="n">
-        <v>111.3864306280424</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.3084103517964</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961376</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.974294488200314</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.974294488199561</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>123.1114357172036</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>42.16980544820353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.974294488199561</v>
+        <v>3.974294488200499</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.2380986358984</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>182.0295433096335</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>3.974294488200314</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>140.0215166936952</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>7.784450435440533</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.974294488199519</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0509578340822</v>
+        <v>126.9118344674206</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.2564909379486</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791612.6552132657</v>
+        <v>791612.6552132656</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791612.6552132656</v>
+        <v>791612.6552132653</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791612.6552132654</v>
+        <v>791612.6552132653</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791612.6552132653</v>
+        <v>791612.6552132656</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935131.9767960972</v>
+        <v>935131.9767960974</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.9767960971</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.976796097</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935131.9767960975</v>
+        <v>935131.9767960974</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651049</v>
+        <v>409196.5187651047</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651049</v>
@@ -26331,31 +26331,31 @@
         <v>409196.5187651048</v>
       </c>
       <c r="H2" t="n">
-        <v>409196.5187651046</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="I2" t="n">
         <v>484076.1648083209</v>
       </c>
       <c r="J2" t="n">
+        <v>484076.1648083209</v>
+      </c>
+      <c r="K2" t="n">
         <v>484076.1648083208</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484076.1648083212</v>
       </c>
       <c r="L2" t="n">
         <v>484076.1648083209</v>
       </c>
       <c r="M2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.1648083208</v>
       </c>
       <c r="N2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.1648083208</v>
       </c>
       <c r="O2" t="n">
         <v>484076.1648083209</v>
       </c>
       <c r="P2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.164808321</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
         <v>182072.9798171906</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061385</v>
+        <v>299319.5565061381</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341503</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26438,28 +26438,28 @@
         <v>7940.571207054552</v>
       </c>
       <c r="I4" t="n">
-        <v>8116.796185477762</v>
+        <v>8116.796185477761</v>
       </c>
       <c r="J4" t="n">
+        <v>8116.79618547776</v>
+      </c>
+      <c r="K4" t="n">
         <v>8116.796185477761</v>
       </c>
-      <c r="K4" t="n">
-        <v>8116.796185477762</v>
-      </c>
       <c r="L4" t="n">
-        <v>8116.796185477762</v>
+        <v>8116.79618547776</v>
       </c>
       <c r="M4" t="n">
-        <v>8116.796185477762</v>
+        <v>8116.796185477761</v>
       </c>
       <c r="N4" t="n">
-        <v>8116.796185477761</v>
+        <v>8116.79618547776</v>
       </c>
       <c r="O4" t="n">
         <v>8116.796185477761</v>
       </c>
       <c r="P4" t="n">
-        <v>8116.796185477762</v>
+        <v>8116.79618547776</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26490,7 +26490,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810299</v>
       </c>
       <c r="J5" t="n">
         <v>101045.0534810299</v>
@@ -26502,16 +26502,16 @@
         <v>101045.0534810299</v>
       </c>
       <c r="M5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810299</v>
       </c>
       <c r="N5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810299</v>
       </c>
       <c r="O5" t="n">
         <v>101045.0534810299</v>
       </c>
       <c r="P5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810299</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590581</v>
+        <v>-849382.4943590576</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168617</v>
+        <v>265369.2892168615</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168616</v>
+        <v>265369.2892168615</v>
       </c>
       <c r="E6" t="n">
-        <v>144876.6271794664</v>
+        <v>141400.4378814052</v>
       </c>
       <c r="F6" t="n">
-        <v>326949.6069966572</v>
+        <v>323473.4176985961</v>
       </c>
       <c r="G6" t="n">
-        <v>326949.6069966572</v>
+        <v>323473.4176985961</v>
       </c>
       <c r="H6" t="n">
-        <v>326949.6069966567</v>
+        <v>323473.4176985958</v>
       </c>
       <c r="I6" t="n">
-        <v>75594.75863567469</v>
+        <v>75238.55458941482</v>
       </c>
       <c r="J6" t="n">
-        <v>207309.1373318307</v>
+        <v>206952.9332855704</v>
       </c>
       <c r="K6" t="n">
-        <v>374914.3151418135</v>
+        <v>374558.1110955527</v>
       </c>
       <c r="L6" t="n">
-        <v>374914.3151418132</v>
+        <v>374558.1110955529</v>
       </c>
       <c r="M6" t="n">
-        <v>327362.0493483982</v>
+        <v>327005.8453021377</v>
       </c>
       <c r="N6" t="n">
-        <v>374914.3151418131</v>
+        <v>374558.1110955528</v>
       </c>
       <c r="O6" t="n">
-        <v>374914.3151418132</v>
+        <v>374558.1110955528</v>
       </c>
       <c r="P6" t="n">
-        <v>374914.3151418131</v>
+        <v>374558.1110955529</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022924</v>
@@ -26810,7 +26810,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.71549554309</v>
       </c>
       <c r="J4" t="n">
         <v>1171.71549554309</v>
@@ -26822,16 +26822,16 @@
         <v>1171.71549554309</v>
       </c>
       <c r="M4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.71549554309</v>
       </c>
       <c r="N4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.71549554309</v>
       </c>
       <c r="O4" t="n">
         <v>1171.71549554309</v>
       </c>
       <c r="P4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.71549554309</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4137283979883</v>
+        <v>277.4137283979878</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407982</v>
+        <v>340.3140401407979</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000385</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>183.7907424631449</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>327.0505757092176</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.72765537819936</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>64.33042803175262</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,16 +27587,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270.7481164763334</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>203.300215884322</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>80.90219269480264</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>98.80532200931353</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>267.4421546309252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>288.2744806114247</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>195.9000915911843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.7139541650467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q4" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,37 +32542,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970261</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32581,7 +32581,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32630,16 +32630,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32648,19 +32648,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H23" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I23" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J23" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K23" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L23" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M23" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N23" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O23" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R23" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S23" t="n">
         <v>125.2456357814631</v>
@@ -32785,43 +32785,43 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J24" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M24" t="n">
-        <v>584.8103913491996</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N24" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O24" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P24" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T24" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32864,25 +32864,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I25" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J25" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K25" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L25" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M25" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N25" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O25" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P25" t="n">
         <v>298.1819912672141</v>
@@ -32894,13 +32894,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S25" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T25" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H26" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I26" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J26" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K26" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L26" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M26" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N26" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O26" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R26" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S26" t="n">
         <v>125.2456357814631</v>
@@ -33022,43 +33022,43 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J27" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L27" t="n">
-        <v>638.5166244076757</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M27" t="n">
-        <v>745.1187838002509</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N27" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P27" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>272.1962264658794</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T27" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33101,25 +33101,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I28" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J28" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K28" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L28" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M28" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N28" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O28" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P28" t="n">
         <v>298.1819912672141</v>
@@ -33131,13 +33131,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S28" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T28" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H29" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I29" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J29" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K29" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L29" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M29" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N29" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O29" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R29" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S29" t="n">
         <v>125.2456357814631</v>
@@ -33259,43 +33259,43 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J30" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K30" t="n">
-        <v>212.9353313557991</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M30" t="n">
-        <v>745.1187838002509</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N30" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O30" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P30" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T30" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33338,25 +33338,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I31" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J31" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K31" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L31" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M31" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N31" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O31" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P31" t="n">
         <v>298.1819912672141</v>
@@ -33368,13 +33368,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S31" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T31" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H32" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I32" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J32" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K32" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L32" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M32" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N32" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O32" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R32" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S32" t="n">
         <v>125.2456357814631</v>
@@ -33496,43 +33496,43 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J33" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M33" t="n">
-        <v>584.8103913491996</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N33" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O33" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P33" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.3840589185132</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T33" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,25 +33575,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I34" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J34" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K34" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L34" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M34" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N34" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O34" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P34" t="n">
         <v>298.1819912672141</v>
@@ -33605,13 +33605,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S34" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T34" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H35" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I35" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J35" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K35" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L35" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M35" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N35" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O35" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R35" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S35" t="n">
         <v>125.2456357814631</v>
@@ -33733,28 +33733,28 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J36" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L36" t="n">
-        <v>250.5531805822623</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M36" t="n">
-        <v>745.1187838002509</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N36" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O36" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P36" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T36" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,25 +33812,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I37" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J37" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K37" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L37" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M37" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N37" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O37" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P37" t="n">
         <v>298.1819912672141</v>
@@ -33842,13 +33842,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S37" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T37" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H38" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I38" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J38" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K38" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L38" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M38" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N38" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O38" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R38" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S38" t="n">
         <v>125.2456357814631</v>
@@ -33973,40 +33973,40 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K39" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L39" t="n">
-        <v>638.5166244076757</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N39" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O39" t="n">
-        <v>699.6790490706632</v>
+        <v>402.2702488170763</v>
       </c>
       <c r="P39" t="n">
-        <v>402.6454486180266</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T39" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,25 +34049,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I40" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J40" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K40" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L40" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M40" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N40" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O40" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P40" t="n">
         <v>298.1819912672141</v>
@@ -34079,13 +34079,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S40" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T40" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H41" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I41" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J41" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K41" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L41" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M41" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N41" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O41" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R41" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S41" t="n">
         <v>125.2456357814631</v>
@@ -34210,22 +34210,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K42" t="n">
-        <v>474.8665096620018</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L42" t="n">
-        <v>638.5166244076757</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M42" t="n">
-        <v>745.1187838002509</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N42" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O42" t="n">
-        <v>365.3653403961273</v>
+        <v>402.2702488170763</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.5844123849118</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T42" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,25 +34286,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I43" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J43" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K43" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L43" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M43" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N43" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O43" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P43" t="n">
         <v>298.1819912672141</v>
@@ -34316,13 +34316,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S43" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T43" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.496242930618232</v>
+        <v>5.496242930618231</v>
       </c>
       <c r="H44" t="n">
-        <v>56.28839791319398</v>
+        <v>56.28839791319397</v>
       </c>
       <c r="I44" t="n">
-        <v>211.8939055826596</v>
+        <v>211.8939055826595</v>
       </c>
       <c r="J44" t="n">
-        <v>466.4867484325596</v>
+        <v>466.4867484325595</v>
       </c>
       <c r="K44" t="n">
-        <v>699.1427116856295</v>
+        <v>699.1427116856294</v>
       </c>
       <c r="L44" t="n">
-        <v>867.3483562735373</v>
+        <v>867.3483562735372</v>
       </c>
       <c r="M44" t="n">
-        <v>965.0921664909192</v>
+        <v>965.0921664909191</v>
       </c>
       <c r="N44" t="n">
-        <v>980.7083667175384</v>
+        <v>980.7083667175382</v>
       </c>
       <c r="O44" t="n">
-        <v>926.0551010762033</v>
+        <v>926.0551010762031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.3666037265656</v>
+        <v>790.3666037265655</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.5324037738</v>
+        <v>593.5324037737998</v>
       </c>
       <c r="R44" t="n">
-        <v>345.2533699904478</v>
+        <v>345.2533699904477</v>
       </c>
       <c r="S44" t="n">
         <v>125.2456357814631</v>
@@ -34444,43 +34444,43 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J45" t="n">
-        <v>277.8363116122764</v>
+        <v>277.8363116122763</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>474.8665096620016</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.5166244076756</v>
       </c>
       <c r="M45" t="n">
-        <v>745.1187838002509</v>
+        <v>745.1187838002508</v>
       </c>
       <c r="N45" t="n">
-        <v>764.8398608373045</v>
+        <v>764.8398608373044</v>
       </c>
       <c r="O45" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P45" t="n">
-        <v>561.5541216737984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>251.9805748884094</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.62312704507635</v>
+        <v>54.62312704507634</v>
       </c>
       <c r="T45" t="n">
-        <v>11.85328305889615</v>
+        <v>11.85328305889614</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1934703437251821</v>
+        <v>0.193470343725182</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,25 +34523,25 @@
         <v>21.91987277956522</v>
       </c>
       <c r="I46" t="n">
-        <v>74.14206457546189</v>
+        <v>74.14206457546187</v>
       </c>
       <c r="J46" t="n">
         <v>174.3055732174628</v>
       </c>
       <c r="K46" t="n">
-        <v>286.4376013526005</v>
+        <v>286.4376013526004</v>
       </c>
       <c r="L46" t="n">
-        <v>366.5415127167786</v>
+        <v>366.5415127167785</v>
       </c>
       <c r="M46" t="n">
-        <v>386.4666322474876</v>
+        <v>386.4666322474875</v>
       </c>
       <c r="N46" t="n">
         <v>377.2773195280382</v>
       </c>
       <c r="O46" t="n">
-        <v>348.4766686878119</v>
+        <v>348.4766686878118</v>
       </c>
       <c r="P46" t="n">
         <v>298.1819912672141</v>
@@ -34553,13 +34553,13 @@
         <v>110.8544895375557</v>
       </c>
       <c r="S46" t="n">
-        <v>42.96564020289007</v>
+        <v>42.96564020289006</v>
       </c>
       <c r="T46" t="n">
         <v>10.53409019058859</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1344777471138972</v>
+        <v>0.1344777471138971</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>577.7882979947784</v>
       </c>
       <c r="O3" t="n">
-        <v>630.2591755145964</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620064</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750464</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>304.1347981767801</v>
+        <v>352.6335057535159</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J23" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K23" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L23" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M23" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N23" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O23" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P23" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R23" t="n">
         <v>129.6678321763156</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M24" t="n">
-        <v>442.6763574271812</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N24" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O24" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P24" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K25" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L25" t="n">
         <v>394.1315379770947</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J26" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K26" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L26" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M26" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N26" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O26" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P26" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R26" t="n">
         <v>129.6678321763156</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J27" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L27" t="n">
-        <v>499.9622446278016</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M27" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N27" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P27" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.2144523798578</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K28" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L28" t="n">
         <v>394.1315379770947</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J29" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K29" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L29" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M29" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N29" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O29" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P29" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R29" t="n">
         <v>129.6678321763156</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J30" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K30" t="n">
-        <v>75.09389238144016</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N30" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O30" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P30" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K31" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L31" t="n">
         <v>394.1315379770947</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J32" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K32" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L32" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M32" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636462</v>
       </c>
       <c r="N32" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O32" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P32" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R32" t="n">
         <v>129.6678321763156</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J33" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M33" t="n">
-        <v>442.6763574271813</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N33" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O33" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P33" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.4022848324917</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K34" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L34" t="n">
         <v>394.1315379770947</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K35" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L35" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M35" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N35" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O35" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P35" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R35" t="n">
         <v>129.6678321763156</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J36" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L36" t="n">
-        <v>111.9988008023881</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M36" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N36" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O36" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P36" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K37" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L37" t="n">
         <v>394.1315379770947</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J38" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K38" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L38" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M38" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N38" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O38" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P38" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R38" t="n">
         <v>129.6678321763156</v>
@@ -37624,28 +37624,28 @@
         <v>150.9986849456097</v>
       </c>
       <c r="K39" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L39" t="n">
-        <v>499.9622446278016</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N39" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O39" t="n">
-        <v>557.0828046262187</v>
+        <v>259.6740043726319</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6710412036964</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K40" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L40" t="n">
         <v>394.1315379770947</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J41" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K41" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L41" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M41" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N41" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O41" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P41" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R41" t="n">
         <v>129.6678321763156</v>
@@ -37861,19 +37861,19 @@
         <v>150.9986849456097</v>
       </c>
       <c r="K42" t="n">
-        <v>337.0250706876428</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L42" t="n">
-        <v>499.9622446278016</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M42" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N42" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O42" t="n">
-        <v>222.7690959516828</v>
+        <v>259.6740043726319</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.90490842094789</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K43" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L43" t="n">
         <v>394.1315379770947</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.418016012253673</v>
+        <v>1.418016012253617</v>
       </c>
       <c r="J44" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058732</v>
       </c>
       <c r="K44" t="n">
-        <v>479.0528606406489</v>
+        <v>479.0528606406488</v>
       </c>
       <c r="L44" t="n">
-        <v>631.5819413035501</v>
+        <v>631.5819413035499</v>
       </c>
       <c r="M44" t="n">
-        <v>734.7459332636465</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2953031209474</v>
+        <v>751.2953031209472</v>
       </c>
       <c r="O44" t="n">
-        <v>695.9568896545165</v>
+        <v>695.9568896545163</v>
       </c>
       <c r="P44" t="n">
         <v>559.133607971296</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.2267138993504</v>
+        <v>371.2267138993503</v>
       </c>
       <c r="R44" t="n">
         <v>129.6678321763156</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J45" t="n">
         <v>150.9986849456097</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.0250706876427</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>499.9622446278015</v>
       </c>
       <c r="M45" t="n">
-        <v>602.9847498782326</v>
+        <v>602.9847498782324</v>
       </c>
       <c r="N45" t="n">
-        <v>633.4981487539712</v>
+        <v>633.4981487539711</v>
       </c>
       <c r="O45" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P45" t="n">
-        <v>427.5797142594681</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.9988008023878</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.94639310079003</v>
+        <v>80.94639310079</v>
       </c>
       <c r="K46" t="n">
-        <v>264.1681095267177</v>
+        <v>264.1681095267176</v>
       </c>
       <c r="L46" t="n">
         <v>394.1315379770947</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1311553.295431998</v>
+        <v>1320714.69893289</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>198.9430992003357</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>84.07481874853214</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269516</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.46616717214799</v>
+        <v>54.80909381784166</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>208.247486888632</v>
+        <v>280.3804015942637</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T6" t="n">
         <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868068</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.71328032340972</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>231.7529493611933</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,7 +1150,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>12.74407195098067</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>39.47777785871079</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>24.84860440602762</v>
+        <v>109.7071287401266</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>81.10098877883308</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.48046147214393</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>152.0684032264859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.98576519627196</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>76.97130521239325</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>220.2403806056876</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.98576519627151</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015448052</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>49.49274882669919</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>83.91763484385294</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2019,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>12.06289619632192</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1675620474791</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>184.17395951947</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.4624061283618</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.2146772038178</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>192.1675620474797</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>402.901751253511</v>
       </c>
       <c r="G23" t="n">
-        <v>405.8322000963165</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H23" t="n">
         <v>283.1864042025732</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>81.59419338597469</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0509578340822</v>
       </c>
       <c r="T25" t="n">
-        <v>169.4818109535899</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U25" t="n">
         <v>286.184551609377</v>
@@ -2572,7 +2572,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.77443380478229</v>
       </c>
       <c r="T26" t="n">
-        <v>195.0617516471497</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U26" t="n">
         <v>250.905953473387</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.19586401066991</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.59419338597469</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>361.298597282807</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.80013931658179</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T29" t="n">
         <v>199.03604613535</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.525553994704</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2857830341782969</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I31" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>114.3332418999885</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.184551609377</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963165</v>
       </c>
       <c r="H32" t="n">
         <v>283.1864042025732</v>
@@ -3082,7 +3082,7 @@
         <v>83.77443380478229</v>
       </c>
       <c r="T32" t="n">
-        <v>195.0617516471488</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U32" t="n">
         <v>250.905953473387</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>7.725795497713968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S34" t="n">
         <v>181.0509578340822</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>25.23391704506067</v>
       </c>
     </row>
     <row r="35">
@@ -3441,10 +3441,10 @@
         <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3072997278744</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0509578340822</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>211.1586623849459</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3531928883875</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.80013931658179</v>
+        <v>83.77443380478229</v>
       </c>
       <c r="T38" t="n">
         <v>199.03604613535</v>
@@ -3562,7 +3562,7 @@
         <v>250.905953473387</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7779639819343</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.525553994704</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184551609377</v>
+        <v>212.6019367552947</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>104.4934550269575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,10 +3793,10 @@
         <v>83.77443380478229</v>
       </c>
       <c r="T41" t="n">
-        <v>195.0617516471497</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U41" t="n">
-        <v>250.905953473387</v>
+        <v>246.9316589851863</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.525553994704</v>
@@ -3918,7 +3918,7 @@
         <v>140.3072997278744</v>
       </c>
       <c r="I43" t="n">
-        <v>81.30841035179641</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4114992376929</v>
+        <v>158.6983928957933</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V43" t="n">
-        <v>244.3531928883875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>405.8322000963165</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H44" t="n">
         <v>283.1864042025732</v>
@@ -4036,7 +4036,7 @@
         <v>250.905953473387</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7779639819343</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.59419338597469</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S46" t="n">
-        <v>54.13912336666156</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T46" t="n">
         <v>217.4114992376929</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1726.54686800908</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1357.584351068669</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>999.3186524619182</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>613.5303998636739</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>202.5444950740663</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400154</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400154</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400154</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400154</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400154</v>
+        <v>1726.54686800908</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400154</v>
+        <v>1726.54686800908</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488038</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310611</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100992</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.759829269319</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460311</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>706.8033708781529</v>
+        <v>888.4518357083936</v>
       </c>
       <c r="C4" t="n">
-        <v>537.867187950246</v>
+        <v>719.5156527804867</v>
       </c>
       <c r="D4" t="n">
-        <v>387.7505485379103</v>
+        <v>569.3990133681509</v>
       </c>
       <c r="E4" t="n">
-        <v>387.7505485379103</v>
+        <v>421.4859197857578</v>
       </c>
       <c r="F4" t="n">
-        <v>240.8606010399999</v>
+        <v>274.5959722878474</v>
       </c>
       <c r="G4" t="n">
-        <v>240.8606010399999</v>
+        <v>106.609507596126</v>
       </c>
       <c r="H4" t="n">
-        <v>92.1217029035061</v>
+        <v>106.609507596126</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096583</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>1109.244414851924</v>
       </c>
       <c r="Y4" t="n">
-        <v>888.4518357083927</v>
+        <v>888.4518357083936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.637639419809</v>
+        <v>1859.931962592039</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813059</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148146</v>
+        <v>1115.878011387044</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252071</v>
+        <v>704.8921065974366</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>421.6795797345439</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816102</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424343</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="6">
@@ -4622,61 +4622,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057884</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310627</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>932.4978103101012</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.759829269323</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284148</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460311</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
         <v>2004.520742047137</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582.433545191957</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>582.433545191957</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
         <v>514.036292340028</v>
@@ -4716,61 +4716,61 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1402.352231830872</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354872</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="Y7" t="n">
-        <v>582.433545191957</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,55 +4780,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.972143346163</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>1342.972143346163</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>1342.972143346163</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>957.1838907479189</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>546.1979859583114</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>130.4932356826002</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4840,16 +4840,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>2397.763577634999</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.972143346163</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1611.346519664368</v>
+        <v>1525.630838518814</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.228182168206</v>
+        <v>1236.512501022651</v>
       </c>
       <c r="V10" t="n">
-        <v>1067.543693962319</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>981.8280128167645</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1221.525483338121</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="C11" t="n">
-        <v>852.5629663977095</v>
+        <v>921.7704558796274</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2972677909589</v>
+        <v>563.504757272877</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>481.584566587187</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.125323402243</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>463.6594280995014</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C13" t="n">
-        <v>463.6594280995014</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>463.6594280995014</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>463.6594280995014</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>463.6594280995014</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1677.037183919085</v>
       </c>
       <c r="U13" t="n">
-        <v>1638.191681214136</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V13" t="n">
-        <v>1383.507193008249</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W13" t="n">
-        <v>1094.090022971289</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X13" t="n">
-        <v>866.1004720732712</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y13" t="n">
-        <v>645.3078929297411</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1127.748203495403</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C14" t="n">
-        <v>1127.748203495403</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D14" t="n">
-        <v>1127.748203495403</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>741.9599508971583</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>330.9740461075507</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
         <v>108.5090151927147</v>
@@ -5275,55 +5275,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.72178906653</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535336</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.348043559524</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C16" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D16" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1868.723068092258</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1677.037183919085</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T16" t="n">
-        <v>1677.037183919085</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.934317044728</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.249828838841</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W16" t="n">
-        <v>843.8326588018809</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X16" t="n">
-        <v>615.8431079038636</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.0505287603335</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1569.101759311878</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C17" t="n">
-        <v>1200.139242371467</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="D17" t="n">
-        <v>841.8735437647163</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="E17" t="n">
-        <v>456.085291166472</v>
+        <v>977.335759097858</v>
       </c>
       <c r="F17" t="n">
-        <v>456.085291166472</v>
+        <v>566.3498543082505</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>151.277404153247</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.306689612892</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.840931351812</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y17" t="n">
-        <v>1955.701599376</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882605</v>
+        <v>1693.343189025371</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.501411349798</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1632.511388127729</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C20" t="n">
-        <v>1263.548871187317</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D20" t="n">
-        <v>905.2831725805665</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E20" t="n">
-        <v>519.4949199823222</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
         <v>108.5090151927147</v>
@@ -5749,55 +5749,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2719.306689612892</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2345.840931351812</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.11122819185</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.501411349798</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.51186045178</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.71928130825</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1200.701532613751</v>
       </c>
       <c r="F23" t="n">
-        <v>789.7156278241439</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G23" t="n">
         <v>379.7841125753393</v>
@@ -5986,16 +5986,16 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I23" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J23" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K23" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L23" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M23" t="n">
         <v>2204.654438818159</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.703155566083</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C25" t="n">
-        <v>391.7669726381761</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D25" t="n">
-        <v>241.6503332258403</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E25" t="n">
-        <v>93.73723964344723</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="F25" t="n">
-        <v>93.73723964344723</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="G25" t="n">
-        <v>93.73723964344723</v>
+        <v>176.1556168009974</v>
       </c>
       <c r="H25" t="n">
         <v>93.73723964344723</v>
@@ -6177,22 +6177,22 @@
         <v>2195.504461774624</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.310713336654</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.235408680718</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.550920474831</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.13375043787</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X25" t="n">
-        <v>963.1441995398528</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.3516203963227</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F26" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G26" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983693</v>
       </c>
       <c r="H26" t="n">
         <v>93.73723964344723</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557832</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623928</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L26" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M26" t="n">
-        <v>2204.654438818159</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N26" t="n">
-        <v>2948.436788907897</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O26" t="n">
         <v>3637.434109665869</v>
@@ -6256,22 +6256,22 @@
         <v>4602.24134196551</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="27">
@@ -6366,19 +6366,19 @@
         <v>343.3531460885772</v>
       </c>
       <c r="D28" t="n">
-        <v>193.2365066762415</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E28" t="n">
-        <v>175.8669470695042</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="F28" t="n">
-        <v>175.8669470695042</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G28" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H28" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I28" t="n">
         <v>93.73723964344723</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C29" t="n">
         <v>1948.769922695716</v>
@@ -6463,7 +6463,7 @@
         <v>95.14107549557821</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623924</v>
+        <v>377.7275109623927</v>
       </c>
       <c r="K29" t="n">
         <v>851.9898429966349</v>
@@ -6472,13 +6472,13 @@
         <v>1477.255964887149</v>
       </c>
       <c r="M29" t="n">
-        <v>2204.654438818159</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N29" t="n">
-        <v>2948.436788907897</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665869</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P29" t="n">
         <v>4190.976381557452</v>
@@ -6490,25 +6490,25 @@
         <v>4686.861982172361</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="30">
@@ -6551,10 +6551,10 @@
         <v>1073.553208785907</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.508111165357</v>
+        <v>1374.36357003029</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.671278431789</v>
+        <v>2001.526737296721</v>
       </c>
       <c r="O30" t="n">
         <v>2553.038713876677</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.2893290164841</v>
+        <v>866.3985381189085</v>
       </c>
       <c r="C31" t="n">
-        <v>343.3531460885772</v>
+        <v>697.4623551910016</v>
       </c>
       <c r="D31" t="n">
-        <v>343.3531460885772</v>
+        <v>697.4623551910016</v>
       </c>
       <c r="E31" t="n">
-        <v>343.3531460885772</v>
+        <v>549.5492616086085</v>
       </c>
       <c r="F31" t="n">
-        <v>343.3531460885772</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="G31" t="n">
-        <v>176.1556168009974</v>
+        <v>235.4617848231183</v>
       </c>
       <c r="H31" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I31" t="n">
         <v>93.73723964344723</v>
@@ -6645,28 +6645,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R31" t="n">
-        <v>2378.384217162586</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S31" t="n">
-        <v>2195.504461774624</v>
+        <v>2330.00609588948</v>
       </c>
       <c r="T31" t="n">
-        <v>1975.896886787055</v>
+        <v>2330.00609588948</v>
       </c>
       <c r="U31" t="n">
-        <v>1686.821582131119</v>
+        <v>2040.930791233543</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.137093925232</v>
+        <v>1786.246303027656</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.719923888271</v>
+        <v>1496.829132990696</v>
       </c>
       <c r="X31" t="n">
-        <v>914.730372990254</v>
+        <v>1268.839582092678</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.9377938467238</v>
+        <v>1048.047002949148</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.715971490721</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7300667011139</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G32" t="n">
         <v>379.7841125753393</v>
       </c>
       <c r="H32" t="n">
-        <v>93.7372396434472</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I32" t="n">
-        <v>95.14107549557828</v>
+        <v>95.14107549557831</v>
       </c>
       <c r="J32" t="n">
-        <v>377.7275109623927</v>
+        <v>377.7275109623928</v>
       </c>
       <c r="K32" t="n">
-        <v>851.989842996635</v>
+        <v>851.9898429966352</v>
       </c>
       <c r="L32" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M32" t="n">
-        <v>2204.654438818159</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N32" t="n">
-        <v>2948.436788907897</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O32" t="n">
-        <v>3637.434109665868</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P32" t="n">
-        <v>4190.976381557451</v>
+        <v>4190.976381557452</v>
       </c>
       <c r="Q32" t="n">
-        <v>4558.490828317807</v>
+        <v>4558.490828317808</v>
       </c>
       <c r="R32" t="n">
-        <v>4686.86198217236</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S32" t="n">
-        <v>4602.241341965509</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.209269594651</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.768912550826</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.937369937141</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.471611676061</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.418045479447</v>
       </c>
       <c r="H33" t="n">
-        <v>93.7372396434472</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I33" t="n">
-        <v>95.447068527464</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J33" t="n">
         <v>244.9357666236176</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.3993308746797</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C34" t="n">
-        <v>410.4631479467728</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D34" t="n">
-        <v>410.4631479467728</v>
+        <v>388.5402807237507</v>
       </c>
       <c r="E34" t="n">
-        <v>410.4631479467728</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F34" t="n">
-        <v>402.6593141106981</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G34" t="n">
-        <v>235.4617848231183</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H34" t="n">
-        <v>93.7372396434472</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I34" t="n">
-        <v>93.7372396434472</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J34" t="n">
         <v>173.8741688132293</v>
@@ -6882,28 +6882,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S34" t="n">
-        <v>2262.614463632819</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T34" t="n">
-        <v>2043.006888645251</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U34" t="n">
-        <v>1753.931583989315</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V34" t="n">
-        <v>1499.247095783428</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.829925746467</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X34" t="n">
-        <v>981.8403748484495</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.0477957049194</v>
+        <v>889.2415678942331</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I35" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623927</v>
+        <v>377.7275109623934</v>
       </c>
       <c r="K35" t="n">
-        <v>851.9898429966349</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L35" t="n">
-        <v>1477.255964887149</v>
+        <v>1477.255964887151</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818159</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907897</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O35" t="n">
         <v>3637.434109665869</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.644884957301</v>
+        <v>874.7906323515731</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7087020293943</v>
+        <v>705.8544494236662</v>
       </c>
       <c r="D37" t="n">
-        <v>779.5920626170586</v>
+        <v>555.7378100113305</v>
       </c>
       <c r="E37" t="n">
-        <v>631.6789690346654</v>
+        <v>407.8247164289373</v>
       </c>
       <c r="F37" t="n">
-        <v>484.7890215367551</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G37" t="n">
-        <v>317.5914922491753</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H37" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I37" t="n">
         <v>93.73723964344723</v>
@@ -7119,28 +7119,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R37" t="n">
-        <v>2378.384217162586</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S37" t="n">
-        <v>2195.504461774624</v>
+        <v>2262.614463632819</v>
       </c>
       <c r="T37" t="n">
-        <v>1975.896886787055</v>
+        <v>2262.614463632819</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.896886787055</v>
+        <v>2049.322885466207</v>
       </c>
       <c r="V37" t="n">
-        <v>1975.896886787055</v>
+        <v>1794.638397260321</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.075479829088</v>
+        <v>1505.22122722336</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.085928931071</v>
+        <v>1277.231676325343</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.293349787541</v>
+        <v>1056.439097181813</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I38" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J38" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K38" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L38" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M38" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N38" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O38" t="n">
         <v>3637.434109665869</v>
@@ -7201,13 +7201,13 @@
         <v>4686.861982172361</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V38" t="n">
         <v>3820.706025207256</v>
@@ -7250,22 +7250,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I39" t="n">
-        <v>93.73723964344723</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J39" t="n">
-        <v>243.2259377396008</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K39" t="n">
-        <v>576.880757720367</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L39" t="n">
-        <v>1071.84337990189</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M39" t="n">
-        <v>1668.79828228134</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N39" t="n">
-        <v>2295.961449547772</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O39" t="n">
         <v>2553.038713876677</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.644884957301</v>
+        <v>653.7252044646619</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7087020293943</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="D40" t="n">
-        <v>779.5920626170586</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="E40" t="n">
-        <v>631.6789690346654</v>
+        <v>484.7890215367551</v>
       </c>
       <c r="F40" t="n">
         <v>484.7890215367551</v>
@@ -7356,28 +7356,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R40" t="n">
-        <v>2378.384217162586</v>
+        <v>2445.494219020781</v>
       </c>
       <c r="S40" t="n">
-        <v>2378.384217162586</v>
+        <v>2262.614463632819</v>
       </c>
       <c r="T40" t="n">
-        <v>2378.384217162586</v>
+        <v>2043.006888645251</v>
       </c>
       <c r="U40" t="n">
-        <v>2089.308912506649</v>
+        <v>1828.257457579297</v>
       </c>
       <c r="V40" t="n">
-        <v>1834.624424300762</v>
+        <v>1573.57296937341</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.075479829088</v>
+        <v>1284.155799336449</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.085928931071</v>
+        <v>1056.166248438432</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.293349787541</v>
+        <v>835.3736692949017</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I41" t="n">
-        <v>95.14107549557843</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J41" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966352</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L41" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M41" t="n">
         <v>2204.654438818159</v>
@@ -7441,7 +7441,7 @@
         <v>4602.24134196551</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U41" t="n">
         <v>4151.768912550827</v>
@@ -7487,22 +7487,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I42" t="n">
-        <v>93.73723964344723</v>
+        <v>95.44706852746403</v>
       </c>
       <c r="J42" t="n">
-        <v>243.2259377396008</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K42" t="n">
-        <v>576.880757720367</v>
+        <v>578.5905866043838</v>
       </c>
       <c r="L42" t="n">
-        <v>1071.84337990189</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M42" t="n">
-        <v>1668.79828228134</v>
+        <v>1670.508111165357</v>
       </c>
       <c r="N42" t="n">
-        <v>2295.961449547772</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O42" t="n">
         <v>2553.038713876677</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.644884957301</v>
+        <v>571.595497038605</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7087020293943</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="D43" t="n">
-        <v>779.5920626170586</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="E43" t="n">
-        <v>631.6789690346654</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="F43" t="n">
-        <v>484.7890215367551</v>
+        <v>402.6593141106981</v>
       </c>
       <c r="G43" t="n">
-        <v>317.5914922491753</v>
+        <v>235.4617848231183</v>
       </c>
       <c r="H43" t="n">
-        <v>175.8669470695042</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I43" t="n">
         <v>93.73723964344723</v>
@@ -7599,22 +7599,22 @@
         <v>2195.504461774624</v>
       </c>
       <c r="T43" t="n">
-        <v>1975.896886787055</v>
+        <v>2035.203054809176</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.896886787055</v>
+        <v>1746.12775015324</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.075479829088</v>
+        <v>1491.443261947353</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.075479829088</v>
+        <v>1202.026091910392</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.085928931071</v>
+        <v>974.0365410123749</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.293349787541</v>
+        <v>753.2439618688447</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2313.718000759158</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C44" t="n">
-        <v>1944.755483818746</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D44" t="n">
-        <v>1586.489785211996</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E44" t="n">
-        <v>1200.701532613751</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F44" t="n">
-        <v>789.7156278241439</v>
+        <v>793.730066701114</v>
       </c>
       <c r="G44" t="n">
         <v>379.7841125753393</v>
@@ -7645,22 +7645,22 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I44" t="n">
-        <v>95.14107549557866</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J44" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623924</v>
       </c>
       <c r="K44" t="n">
-        <v>851.9898429966361</v>
+        <v>851.9898429966349</v>
       </c>
       <c r="L44" t="n">
-        <v>1477.25596488715</v>
+        <v>1477.255964887149</v>
       </c>
       <c r="M44" t="n">
-        <v>2204.65443881816</v>
+        <v>2204.654438818159</v>
       </c>
       <c r="N44" t="n">
-        <v>2948.436788907898</v>
+        <v>2948.436788907897</v>
       </c>
       <c r="O44" t="n">
         <v>3637.434109665869</v>
@@ -7684,16 +7684,16 @@
         <v>4147.754473673856</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.691586330286</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.922931060171</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X44" t="n">
-        <v>3090.457172799091</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y44" t="n">
-        <v>2700.31784082328</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.5931030639933</v>
+        <v>512.2893290164841</v>
       </c>
       <c r="C46" t="n">
-        <v>538.6569201360865</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="D46" t="n">
-        <v>388.5402807237507</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="E46" t="n">
-        <v>240.6271871413576</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="F46" t="n">
-        <v>93.73723964344723</v>
+        <v>343.3531460885772</v>
       </c>
       <c r="G46" t="n">
-        <v>93.73723964344723</v>
+        <v>176.1556168009974</v>
       </c>
       <c r="H46" t="n">
         <v>93.73723964344723</v>
@@ -7830,28 +7830,28 @@
         <v>2445.494219020781</v>
       </c>
       <c r="R46" t="n">
-        <v>2445.494219020781</v>
+        <v>2378.384217162586</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.808235822133</v>
+        <v>2195.504461774624</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.200660834565</v>
+        <v>1975.896886787055</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.125356178628</v>
+        <v>1686.821582131119</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.440867972741</v>
+        <v>1432.137093925232</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.023697935781</v>
+        <v>1142.719923888271</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.034147037763</v>
+        <v>914.730372990254</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.2415678942331</v>
+        <v>693.9377938467238</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515145</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621875</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>186.5911984018982</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515142</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>54.95314511566573</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>300.8293812934287</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>296.7574771839097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.95740503254237</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>161.5631840798972</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>277.7117364082897</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>190.6813450477658</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.94638747377584</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>182.1679443159939</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>361.4289768267543</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>210.6901295434675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>240.0747471275061</v>
       </c>
       <c r="W19" t="n">
-        <v>94.35543628911194</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24022,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.77553252769178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.40079581439457</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24183,16 +24183,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>94.04427615813316</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.974294488200428</v>
       </c>
       <c r="G23" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.3072997278744</v>
+        <v>58.71310634189966</v>
       </c>
       <c r="I25" t="n">
         <v>81.30841035179641</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>47.92968828410304</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.974294488200314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.2380986358993</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>63.82685463695655</v>
       </c>
       <c r="G28" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.3072997278744</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.974294488200542</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.974294488200499</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.021516693696</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>66.71771593409366</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.974294488201281</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>137.6952525252173</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I34" t="n">
         <v>81.30841035179641</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>193.3507363070341</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.3072997278744</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184551609377</v>
+        <v>75.0258892244311</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.16980544820353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.974294488200499</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.974294488200599</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.43890183961379</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>73.58261485408229</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>182.0295433096335</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.974294488200684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.30841035179641</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>58.71310634189962</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>7.784450435440533</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.974294488200371</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.974294488200599</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.3072997278744</v>
+        <v>58.71310634189966</v>
       </c>
       <c r="I46" t="n">
         <v>81.30841035179641</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.43890183961379</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.9118344674206</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791612.6552132656</v>
+        <v>791612.6552132657</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791612.6552132653</v>
+        <v>791612.6552132657</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791612.6552132653</v>
+        <v>791612.6552132656</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791612.6552132656</v>
+        <v>791612.6552132657</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.9767960972</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935131.9767960971</v>
+        <v>935131.9767960972</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935131.976796097</v>
+        <v>935131.9767960974</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.9767960971</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.976796097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935131.9767960974</v>
+        <v>935131.9767960971</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
-      </c>
-      <c r="C2" t="n">
-        <v>492625.0619185702</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>409196.5187651047</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="F2" t="n">
         <v>409196.5187651049</v>
       </c>
       <c r="G2" t="n">
-        <v>409196.5187651048</v>
+        <v>409196.5187651049</v>
       </c>
       <c r="H2" t="n">
         <v>409196.5187651049</v>
@@ -26337,22 +26337,22 @@
         <v>484076.1648083209</v>
       </c>
       <c r="J2" t="n">
-        <v>484076.1648083209</v>
+        <v>484076.1648083208</v>
       </c>
       <c r="K2" t="n">
         <v>484076.1648083208</v>
       </c>
       <c r="L2" t="n">
+        <v>484076.164808321</v>
+      </c>
+      <c r="M2" t="n">
         <v>484076.1648083209</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>484076.164808321</v>
+      </c>
+      <c r="O2" t="n">
         <v>484076.1648083208</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484076.1648083208</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484076.1648083209</v>
       </c>
       <c r="P2" t="n">
         <v>484076.164808321</v>
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>1.966945774256601e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>1.412581696058623e-10</v>
+        <v>-4.753193210247749e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061381</v>
+        <v>299319.5565061378</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341503</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618635</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>7940.571207054552</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>101045.0534810299</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590576</v>
+        <v>-849382.4943590583</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168615</v>
+        <v>265369.2892168595</v>
       </c>
       <c r="D6" t="n">
-        <v>265369.2892168615</v>
+        <v>265369.2892168637</v>
       </c>
       <c r="E6" t="n">
-        <v>141400.4378814052</v>
+        <v>144529.0082496601</v>
       </c>
       <c r="F6" t="n">
-        <v>323473.4176985961</v>
+        <v>326601.9880668508</v>
       </c>
       <c r="G6" t="n">
-        <v>323473.4176985961</v>
+        <v>326601.9880668509</v>
       </c>
       <c r="H6" t="n">
-        <v>323473.4176985958</v>
+        <v>326601.9880668509</v>
       </c>
       <c r="I6" t="n">
-        <v>75238.55458941482</v>
+        <v>75559.13823104944</v>
       </c>
       <c r="J6" t="n">
-        <v>206952.9332855704</v>
+        <v>207273.5169272045</v>
       </c>
       <c r="K6" t="n">
-        <v>374558.1110955527</v>
+        <v>374878.6947371871</v>
       </c>
       <c r="L6" t="n">
-        <v>374558.1110955529</v>
+        <v>374878.6947371873</v>
       </c>
       <c r="M6" t="n">
-        <v>327005.8453021377</v>
+        <v>327326.4289437722</v>
       </c>
       <c r="N6" t="n">
-        <v>374558.1110955528</v>
+        <v>374878.6947371873</v>
       </c>
       <c r="O6" t="n">
-        <v>374558.1110955528</v>
+        <v>374878.6947371871</v>
       </c>
       <c r="P6" t="n">
-        <v>374558.1110955529</v>
+        <v>374878.6947371873</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1171.71549554309</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2.187139746434029e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>277.4137283979878</v>
+        <v>277.4137283979876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407979</v>
+        <v>340.3140401407975</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.7907424631449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>327.4728840244218</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>64.33042803175262</v>
+        <v>49.9875013860589</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>203.300215884322</v>
+        <v>131.1673011786903</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>80.90219269480264</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.38469396263469</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>288.2744806114247</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>309.7631908587022</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28064,7 +28064,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>195.9000915911843</v>
+        <v>111.0415672570853</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682318</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33271,13 +33271,13 @@
         <v>638.5166244076756</v>
       </c>
       <c r="M30" t="n">
-        <v>745.1187838002508</v>
+        <v>445.9828836638185</v>
       </c>
       <c r="N30" t="n">
         <v>764.8398608373044</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5431489342308</v>
+        <v>699.679049070663</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J39" t="n">
         <v>277.8363116122763</v>
@@ -33988,7 +33988,7 @@
         <v>764.8398608373044</v>
       </c>
       <c r="O39" t="n">
-        <v>402.2702488170763</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.2494798828453</v>
       </c>
       <c r="J42" t="n">
         <v>277.8363116122763</v>
@@ -34225,7 +34225,7 @@
         <v>764.8398608373044</v>
       </c>
       <c r="O42" t="n">
-        <v>402.2702488170763</v>
+        <v>400.5431489342308</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939893</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000385</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>577.7882979947784</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235321</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434856</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>577.7882979947734</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750464</v>
+        <v>249.6795291235333</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>352.6335057535159</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>499.9622446278015</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9847498782324</v>
+        <v>303.8488497418002</v>
       </c>
       <c r="N30" t="n">
         <v>633.4981487539711</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9469044897864</v>
+        <v>557.0828046262186</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>631.5819413035499</v>
       </c>
       <c r="M32" t="n">
-        <v>734.7459332636462</v>
+        <v>734.7459332636464</v>
       </c>
       <c r="N32" t="n">
         <v>751.2953031209472</v>
@@ -37092,7 +37092,7 @@
         <v>371.2267138993503</v>
       </c>
       <c r="R32" t="n">
-        <v>129.6678321763156</v>
+        <v>129.6678321763162</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J39" t="n">
         <v>150.9986849456097</v>
@@ -37636,7 +37636,7 @@
         <v>633.4981487539711</v>
       </c>
       <c r="O39" t="n">
-        <v>259.6740043726319</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.727099882845252</v>
       </c>
       <c r="J42" t="n">
         <v>150.9986849456097</v>
@@ -37873,7 +37873,7 @@
         <v>633.4981487539711</v>
       </c>
       <c r="O42" t="n">
-        <v>259.6740043726319</v>
+        <v>257.9469044897864</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
